--- a/src/TestData.xlsx
+++ b/src/TestData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13365" windowHeight="2790"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13365" windowHeight="3240"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Add_User" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:I5"/>
+  <oleSize ref="D1:I9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Email</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Full_Name</t>
   </si>
   <si>
-    <t>Erin Hermann</t>
-  </si>
-  <si>
     <t>DmItw6Ps!2</t>
   </si>
   <si>
@@ -63,19 +60,55 @@
     <t>Patrner_Password_Record</t>
   </si>
   <si>
-    <t>digitalmesh8hhwxd@maildrop.cc</t>
-  </si>
-  <si>
-    <t>DmBEMWPs!2</t>
-  </si>
-  <si>
-    <t>Sydni Anderson</t>
-  </si>
-  <si>
     <t>User_Password_Record</t>
   </si>
   <si>
-    <t>Dmhq64Ps!2</t>
+    <t>Email_ID</t>
+  </si>
+  <si>
+    <t>DmTs53Ps!2</t>
+  </si>
+  <si>
+    <t>User_Password</t>
+  </si>
+  <si>
+    <t>Irwin Hickle</t>
+  </si>
+  <si>
+    <t>digitalmeshp830DK@maildrop.cc</t>
+  </si>
+  <si>
+    <t>DmS2vSPs!2</t>
+  </si>
+  <si>
+    <t>Company_Name</t>
+  </si>
+  <si>
+    <t>digitalmeshp1fayy@maildrop.cc</t>
+  </si>
+  <si>
+    <t>eYYlB</t>
+  </si>
+  <si>
+    <t>DmcLYZPs!2</t>
+  </si>
+  <si>
+    <t>digitalmeshjjyfzh@maildrop.cc</t>
+  </si>
+  <si>
+    <t>idAsI</t>
+  </si>
+  <si>
+    <t>DmpKxvPs!2</t>
+  </si>
+  <si>
+    <t>digitalmesh5rb2yq@maildrop.cc</t>
+  </si>
+  <si>
+    <t>AaAch</t>
+  </si>
+  <si>
+    <t>DmQYmAPs!2</t>
   </si>
 </sst>
 </file>
@@ -408,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -422,11 +455,13 @@
     <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.58984375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.80859375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.91015625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -440,27 +475,30 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
-        <v>18</v>
+      <c r="J1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -469,19 +507,22 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
+      <c r="J2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -491,25 +532,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.390625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/TestData.xlsx
+++ b/src/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13365" windowHeight="3240"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13365" windowHeight="3165"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Email</t>
   </si>
@@ -84,31 +84,31 @@
     <t>Company_Name</t>
   </si>
   <si>
-    <t>digitalmeshp1fayy@maildrop.cc</t>
-  </si>
-  <si>
-    <t>eYYlB</t>
-  </si>
-  <si>
-    <t>DmcLYZPs!2</t>
-  </si>
-  <si>
-    <t>digitalmeshjjyfzh@maildrop.cc</t>
-  </si>
-  <si>
-    <t>idAsI</t>
-  </si>
-  <si>
-    <t>DmpKxvPs!2</t>
-  </si>
-  <si>
-    <t>digitalmesh5rb2yq@maildrop.cc</t>
-  </si>
-  <si>
-    <t>AaAch</t>
-  </si>
-  <si>
-    <t>DmQYmAPs!2</t>
+    <t>PhoneNmbr</t>
+  </si>
+  <si>
+    <t>digitalmeshobxchz@maildrop.cc</t>
+  </si>
+  <si>
+    <t>4140662324</t>
+  </si>
+  <si>
+    <t>rcXvq</t>
+  </si>
+  <si>
+    <t>DmU31CPs!2</t>
+  </si>
+  <si>
+    <t>digitalmeshlj7ux5@maildrop.cc</t>
+  </si>
+  <si>
+    <t>3470414515</t>
+  </si>
+  <si>
+    <t>KyPsR</t>
+  </si>
+  <si>
+    <t>DmHsC3Ps!2</t>
   </si>
 </sst>
 </file>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -455,13 +455,14 @@
     <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.58984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="30.0703125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="24.80859375" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="15.91015625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -492,8 +493,11 @@
       <c r="J1" t="s">
         <v>21</v>
       </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -513,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
@@ -523,6 +527,9 @@
       </c>
       <c r="J2" t="s">
         <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/TestData.xlsx
+++ b/src/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>Email</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>DmHsC3Ps!2</t>
+  </si>
+  <si>
+    <t>digitalmeshoohju4@maildrop.cc</t>
+  </si>
+  <si>
+    <t>2267312673</t>
+  </si>
+  <si>
+    <t>ZTkBo</t>
+  </si>
+  <si>
+    <t>Dm1zNYPs!2</t>
+  </si>
+  <si>
+    <t>Chaya Rosenbaum</t>
+  </si>
+  <si>
+    <t>digitalmeshJmRpZK@maildrop.cc</t>
+  </si>
+  <si>
+    <t>Dm53mYDm1zNYPs!2</t>
+  </si>
+  <si>
+    <t>digitalmeshi0m2gs@maildrop.cc</t>
+  </si>
+  <si>
+    <t>8983205195</t>
+  </si>
+  <si>
+    <t>WjlnQ</t>
+  </si>
+  <si>
+    <t>digitalmeshym64un@maildrop.cc</t>
+  </si>
+  <si>
+    <t>digitalmeshbfffdf@maildrop.cc</t>
+  </si>
+  <si>
+    <t>8935802804</t>
+  </si>
+  <si>
+    <t>mpVup</t>
+  </si>
+  <si>
+    <t>digitalmeshkmyyyd@maildrop.cc</t>
+  </si>
+  <si>
+    <t>1862969126</t>
+  </si>
+  <si>
+    <t>QPazl</t>
   </si>
 </sst>
 </file>
@@ -455,7 +506,7 @@
     <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="30.0703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.84375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="24.80859375" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="15.91015625" collapsed="true"/>
@@ -517,19 +568,19 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -547,9 +598,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.49609375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.84375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -565,13 +616,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/src/TestData.xlsx
+++ b/src/TestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13365" windowHeight="3165"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13365" windowHeight="3945" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Add_User" sheetId="4" r:id="rId2"/>
+    <sheet name="Add_Products" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="D1:I9"/>
+  <oleSize ref="A1:M11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Email</t>
   </si>
@@ -72,57 +73,12 @@
     <t>User_Password</t>
   </si>
   <si>
-    <t>Irwin Hickle</t>
-  </si>
-  <si>
-    <t>digitalmeshp830DK@maildrop.cc</t>
-  </si>
-  <si>
-    <t>DmS2vSPs!2</t>
-  </si>
-  <si>
     <t>Company_Name</t>
   </si>
   <si>
     <t>PhoneNmbr</t>
   </si>
   <si>
-    <t>digitalmeshobxchz@maildrop.cc</t>
-  </si>
-  <si>
-    <t>4140662324</t>
-  </si>
-  <si>
-    <t>rcXvq</t>
-  </si>
-  <si>
-    <t>DmU31CPs!2</t>
-  </si>
-  <si>
-    <t>digitalmeshlj7ux5@maildrop.cc</t>
-  </si>
-  <si>
-    <t>3470414515</t>
-  </si>
-  <si>
-    <t>KyPsR</t>
-  </si>
-  <si>
-    <t>DmHsC3Ps!2</t>
-  </si>
-  <si>
-    <t>digitalmeshoohju4@maildrop.cc</t>
-  </si>
-  <si>
-    <t>2267312673</t>
-  </si>
-  <si>
-    <t>ZTkBo</t>
-  </si>
-  <si>
-    <t>Dm1zNYPs!2</t>
-  </si>
-  <si>
     <t>Chaya Rosenbaum</t>
   </si>
   <si>
@@ -132,48 +88,156 @@
     <t>Dm53mYDm1zNYPs!2</t>
   </si>
   <si>
-    <t>digitalmeshi0m2gs@maildrop.cc</t>
-  </si>
-  <si>
-    <t>8983205195</t>
-  </si>
-  <si>
-    <t>WjlnQ</t>
-  </si>
-  <si>
-    <t>digitalmeshym64un@maildrop.cc</t>
-  </si>
-  <si>
-    <t>digitalmeshbfffdf@maildrop.cc</t>
-  </si>
-  <si>
-    <t>8935802804</t>
-  </si>
-  <si>
-    <t>mpVup</t>
-  </si>
-  <si>
-    <t>digitalmeshkmyyyd@maildrop.cc</t>
-  </si>
-  <si>
-    <t>1862969126</t>
-  </si>
-  <si>
-    <t>QPazl</t>
+    <t>digitalmeshboexd4@maildrop.cc</t>
+  </si>
+  <si>
+    <t>2093647839</t>
+  </si>
+  <si>
+    <t>BgyvV</t>
+  </si>
+  <si>
+    <t>Dmxln3Ps!2</t>
+  </si>
+  <si>
+    <t>Product_Name</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Product_Identifier</t>
+  </si>
+  <si>
+    <t>GCID</t>
+  </si>
+  <si>
+    <t>Product_identifier_value</t>
+  </si>
+  <si>
+    <t>Product Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU </t>
+  </si>
+  <si>
+    <t>EcomtjmC</t>
+  </si>
+  <si>
+    <t>Product_identifier_Description</t>
+  </si>
+  <si>
+    <t>Product identifier description</t>
+  </si>
+  <si>
+    <t>Product_Quantity</t>
+  </si>
+  <si>
+    <t>Product_Price</t>
+  </si>
+  <si>
+    <t>Product_MSRP</t>
+  </si>
+  <si>
+    <t>Product_Brand</t>
+  </si>
+  <si>
+    <t>Band of Brothers</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>centimeter</t>
+  </si>
+  <si>
+    <t>Dimension_Unit</t>
+  </si>
+  <si>
+    <t>Product_Dimension_Length</t>
+  </si>
+  <si>
+    <t>Product_Dimension_Width</t>
+  </si>
+  <si>
+    <t>Product_Dimension_Height</t>
+  </si>
+  <si>
+    <t>Gram</t>
+  </si>
+  <si>
+    <t>Product_Weight_Unit</t>
+  </si>
+  <si>
+    <t>Product_Weight</t>
+  </si>
+  <si>
+    <t>Package_Dimension_Unit</t>
+  </si>
+  <si>
+    <t>Package_Dimension_Length</t>
+  </si>
+  <si>
+    <t>Package_Dimension_Width</t>
+  </si>
+  <si>
+    <t>Package_Dimension_Height</t>
+  </si>
+  <si>
+    <t>Package_Weight_Unit</t>
+  </si>
+  <si>
+    <t>Package_Weight</t>
+  </si>
+  <si>
+    <t>Bullet_Points</t>
+  </si>
+  <si>
+    <t>Bullet points</t>
+  </si>
+  <si>
+    <t>Image_URL</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61slsTqQruL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Search_Terms</t>
+  </si>
+  <si>
+    <t>Free Delivery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,13 +257,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,23 +565,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.84375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="24.80859375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="15.91015625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -542,10 +613,10 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -568,19 +639,19 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -598,9 +669,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.49609375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.84375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.83203125" collapsed="true"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -616,16 +687,221 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" customWidth="1"/>
+    <col min="14" max="14" width="31.42578125" customWidth="1"/>
+    <col min="15" max="15" width="21" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="25.28515625" customWidth="1"/>
+    <col min="18" max="18" width="29" customWidth="1"/>
+    <col min="19" max="19" width="26.42578125" customWidth="1"/>
+    <col min="20" max="20" width="28.28515625" customWidth="1"/>
+    <col min="21" max="21" width="21.28515625" customWidth="1"/>
+    <col min="22" max="22" width="17.42578125" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" customWidth="1"/>
+    <col min="24" max="24" width="60.5703125" customWidth="1"/>
+    <col min="25" max="25" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2">
+        <v>2500</v>
+      </c>
+      <c r="G2">
+        <v>350000</v>
+      </c>
+      <c r="H2">
+        <v>30000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2">
+        <v>20</v>
+      </c>
+      <c r="S2">
+        <v>20</v>
+      </c>
+      <c r="T2">
+        <v>20</v>
+      </c>
+      <c r="U2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2">
+        <v>50</v>
+      </c>
+      <c r="W2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="X2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/TestData.xlsx
+++ b/src/TestData.xlsx
@@ -12,12 +12,12 @@
     <sheet name="Add_Products" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:M11"/>
+  <oleSize ref="J1:N11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>Email</t>
   </si>
@@ -79,27 +79,9 @@
     <t>PhoneNmbr</t>
   </si>
   <si>
-    <t>Chaya Rosenbaum</t>
-  </si>
-  <si>
-    <t>digitalmeshJmRpZK@maildrop.cc</t>
-  </si>
-  <si>
     <t>Dm53mYDm1zNYPs!2</t>
   </si>
   <si>
-    <t>digitalmeshboexd4@maildrop.cc</t>
-  </si>
-  <si>
-    <t>2093647839</t>
-  </si>
-  <si>
-    <t>BgyvV</t>
-  </si>
-  <si>
-    <t>Dmxln3Ps!2</t>
-  </si>
-  <si>
     <t>Product_Name</t>
   </si>
   <si>
@@ -212,12 +194,55 @@
   </si>
   <si>
     <t>Free Delivery</t>
+  </si>
+  <si>
+    <t>Prod_Category_input</t>
+  </si>
+  <si>
+    <t>deodorisers</t>
+  </si>
+  <si>
+    <t>EcomcFbw</t>
+  </si>
+  <si>
+    <t>Product_Identifier_Value</t>
+  </si>
+  <si>
+    <t>Demarco Purdy II</t>
+  </si>
+  <si>
+    <t>digitalmeshRtUaWD@maildrop.cc</t>
+  </si>
+  <si>
+    <t>digitalmeshangeb7@maildrop.cc</t>
+  </si>
+  <si>
+    <t>2622922229</t>
+  </si>
+  <si>
+    <t>UGCVF</t>
+  </si>
+  <si>
+    <t>DmBzMHPs!2</t>
+  </si>
+  <si>
+    <t>EcomepH3</t>
+  </si>
+  <si>
+    <t>ProdIdBI5b</t>
+  </si>
+  <si>
+    <t>EcomyyyG</t>
+  </si>
+  <si>
+    <t>ProdIdGcPx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -264,10 +289,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -566,22 +593,22 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -639,19 +666,19 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -669,9 +696,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -687,13 +714,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -703,199 +730,249 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" customWidth="1"/>
-    <col min="14" max="14" width="31.42578125" customWidth="1"/>
-    <col min="15" max="15" width="21" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" customWidth="1"/>
-    <col min="17" max="17" width="25.28515625" customWidth="1"/>
-    <col min="18" max="18" width="29" customWidth="1"/>
-    <col min="19" max="19" width="26.42578125" customWidth="1"/>
-    <col min="20" max="20" width="28.28515625" customWidth="1"/>
-    <col min="21" max="21" width="21.28515625" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" customWidth="1"/>
-    <col min="23" max="23" width="19.42578125" customWidth="1"/>
-    <col min="24" max="24" width="60.5703125" customWidth="1"/>
-    <col min="25" max="25" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="60.5703125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I2" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="L2" s="3">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3">
+        <v>25</v>
+      </c>
+      <c r="N2" s="3">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="3">
+        <v>20</v>
+      </c>
+      <c r="S2" s="3">
+        <v>20</v>
+      </c>
+      <c r="T2" s="3">
+        <v>20</v>
+      </c>
+      <c r="U2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="3">
+        <v>50</v>
+      </c>
+      <c r="W2" t="s">
         <v>54</v>
       </c>
-      <c r="S1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="X2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="U1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="Y2" t="s">
         <v>58</v>
       </c>
-      <c r="W1" t="s">
-        <v>59</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="Z2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA2" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" t="s">
-        <v>63</v>
+      <c r="AB2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2">
-        <v>2500</v>
-      </c>
-      <c r="G2">
-        <v>350000</v>
-      </c>
-      <c r="H2">
-        <v>30000</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2">
-        <v>20</v>
-      </c>
-      <c r="M2">
-        <v>25</v>
-      </c>
-      <c r="N2">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2">
-        <v>20</v>
-      </c>
-      <c r="S2">
-        <v>20</v>
-      </c>
-      <c r="T2">
-        <v>20</v>
-      </c>
-      <c r="U2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2">
-        <v>50</v>
-      </c>
-      <c r="W2" t="s">
-        <v>60</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>64</v>
-      </c>
+    <row r="3" spans="1:29">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
-    <row r="3" spans="1:25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
+    <row r="4" spans="1:29">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/TestData.xlsx
+++ b/src/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>Email</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>ProdIdGcPx</t>
+  </si>
+  <si>
+    <t>EcomvMFj</t>
+  </si>
+  <si>
+    <t>ProdId0Svp</t>
   </si>
 </sst>
 </file>
@@ -730,7 +736,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -860,6 +866,9 @@
       <c r="AD1" t="s">
         <v>28</v>
       </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
@@ -944,13 +953,16 @@
         <v>61</v>
       </c>
       <c r="AB2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s">
         <v>69</v>
       </c>
       <c r="AD2" t="s">
         <v>71</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:29">

--- a/src/TestData.xlsx
+++ b/src/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13365" windowHeight="3930" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="2715" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="Add_User" sheetId="4" r:id="rId3"/>
     <sheet name="Add_Products" sheetId="5" r:id="rId4"/>
     <sheet name="Edit_Product" sheetId="6" r:id="rId5"/>
+    <sheet name="OrderDetails" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:F11"/>
+  <oleSize ref="A1:L11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="147">
   <si>
     <t>Email</t>
   </si>
@@ -66,9 +67,6 @@
     <t>User_Password</t>
   </si>
   <si>
-    <t>Dm53mYDm1zNYPs!2</t>
-  </si>
-  <si>
     <t>Product_Name</t>
   </si>
   <si>
@@ -198,15 +196,6 @@
     <t>Demarco Purdy II</t>
   </si>
   <si>
-    <t>digitalmeshRtUaWD@maildrop.cc</t>
-  </si>
-  <si>
-    <t>digitalmeshangeb7@maildrop.cc</t>
-  </si>
-  <si>
-    <t>DmBzMHPs!2</t>
-  </si>
-  <si>
     <t>Product_Name_Edited</t>
   </si>
   <si>
@@ -345,9 +334,6 @@
     <t>Ecomeh4I</t>
   </si>
   <si>
-    <t>ProdIdNrtD</t>
-  </si>
-  <si>
     <t>Brand D</t>
   </si>
   <si>
@@ -370,6 +356,111 @@
   </si>
   <si>
     <t>DmNNKLPs!2</t>
+  </si>
+  <si>
+    <t>EcomlpYU</t>
+  </si>
+  <si>
+    <t>ProdIdioEq</t>
+  </si>
+  <si>
+    <t>Order_Id</t>
+  </si>
+  <si>
+    <t>SKU_ID</t>
+  </si>
+  <si>
+    <t>7412580000</t>
+  </si>
+  <si>
+    <t>9600000010</t>
+  </si>
+  <si>
+    <t>9696969610.65</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1470</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>3200</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>8523614075</t>
+  </si>
+  <si>
+    <t>8547123695</t>
+  </si>
+  <si>
+    <t>9633698523</t>
+  </si>
+  <si>
+    <t>ofelia.lemke@example.org</t>
+  </si>
+  <si>
+    <t>Pass@123</t>
+  </si>
+  <si>
+    <t>15490</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>Select_Month</t>
+  </si>
+  <si>
+    <t>Last 60 days</t>
+  </si>
+  <si>
+    <t>Select_Marketplace</t>
+  </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t>Order_Status</t>
+  </si>
+  <si>
+    <t>Shipped</t>
+  </si>
+  <si>
+    <t>Search_By</t>
+  </si>
+  <si>
+    <t>Search by SKU</t>
   </si>
 </sst>
 </file>
@@ -422,11 +513,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -725,7 +819,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -763,10 +857,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -809,10 +903,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -823,19 +917,19 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +942,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -870,18 +964,18 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -894,10 +988,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7"/>
+      <selection activeCell="AN3" sqref="AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -940,235 +1034,241 @@
     <col min="36" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="F2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="P2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>23</v>
+      <c r="AH2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:38">
+      <c r="A3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2500</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3500</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3600</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="1">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1">
-        <v>25</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="1">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1">
-        <v>20</v>
-      </c>
-      <c r="T2" s="1">
-        <v>20</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="1">
-        <v>50</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>8523614075</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>8547123695</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>9633698523</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1184,197 +1284,262 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="26" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="29.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="20.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="21" width="18.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="26" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="16.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="26.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="23.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="T1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1470</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3200</v>
+        <v>61</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="1">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1">
-        <v>17</v>
+        <v>72</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" s="1">
-        <v>5</v>
+        <v>73</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="1">
-        <v>10</v>
-      </c>
-      <c r="O2" s="1">
-        <v>10</v>
-      </c>
-      <c r="P2" s="1">
-        <v>10</v>
+        <v>72</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" s="1">
-        <v>10</v>
+        <v>73</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="V2" s="1">
-        <v>7412580000</v>
-      </c>
-      <c r="W2" s="1">
-        <v>20</v>
+        <v>100</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>9696969610</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>9600000010</v>
+        <v>101</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/src/TestData.xlsx
+++ b/src/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="151">
   <si>
     <t>Email</t>
   </si>
@@ -461,6 +461,18 @@
   </si>
   <si>
     <t>Search by SKU</t>
+  </si>
+  <si>
+    <t>MarketPlace_Order_ID</t>
+  </si>
+  <si>
+    <t>187-4372-28256</t>
+  </si>
+  <si>
+    <t>Customer_Name</t>
+  </si>
+  <si>
+    <t>Dessie Jones Rolfson</t>
   </si>
 </sst>
 </file>
@@ -1486,11 +1498,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1500,9 +1510,11 @@
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -1521,8 +1533,14 @@
       <c r="F1" t="s">
         <v>145</v>
       </c>
+      <c r="G1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>138</v>
       </c>
@@ -1540,6 +1558,12 @@
       </c>
       <c r="F2" t="s">
         <v>146</v>
+      </c>
+      <c r="G2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/src/TestData.xlsx
+++ b/src/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="153">
   <si>
     <t>Email</t>
   </si>
@@ -473,6 +473,12 @@
   </si>
   <si>
     <t>Dessie Jones Rolfson</t>
+  </si>
+  <si>
+    <t>MFN</t>
+  </si>
+  <si>
+    <t>Ship_Type</t>
   </si>
 </sst>
 </file>
@@ -525,7 +531,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -533,6 +539,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1498,9 +1507,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1512,9 +1523,10 @@
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -1539,8 +1551,11 @@
       <c r="H1" t="s">
         <v>149</v>
       </c>
+      <c r="I1" s="7" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>138</v>
       </c>
@@ -1564,6 +1579,9 @@
       </c>
       <c r="H2" t="s">
         <v>150</v>
+      </c>
+      <c r="I2" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/src/TestData.xlsx
+++ b/src/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="2715" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="OrderDetails" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:L11"/>
+  <oleSize ref="A1:F7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="155">
   <si>
     <t>Email</t>
   </si>
@@ -479,6 +479,12 @@
   </si>
   <si>
     <t>Ship_Type</t>
+  </si>
+  <si>
+    <t>shahitha.shahi@gmail.com</t>
+  </si>
+  <si>
+    <t>Sh@h!tha1</t>
   </si>
 </sst>
 </file>
@@ -839,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -878,10 +884,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1509,7 +1515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>

--- a/src/TestData.xlsx
+++ b/src/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15615" windowHeight="2880" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,17 @@
     <sheet name="Add_Products" sheetId="5" r:id="rId4"/>
     <sheet name="Edit_Product" sheetId="6" r:id="rId5"/>
     <sheet name="OrderDetails" sheetId="8" r:id="rId6"/>
+    <sheet name="FileUpload" sheetId="9" r:id="rId7"/>
+    <sheet name="EditProfile" sheetId="10" r:id="rId8"/>
+    <sheet name="Reports" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:F7"/>
+  <oleSize ref="A1:N8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="164">
   <si>
     <t>Email</t>
   </si>
@@ -34,15 +37,9 @@
     <t>Password_Record</t>
   </si>
   <si>
-    <t>digitalmeshc7ahn1@maildrop.cc</t>
-  </si>
-  <si>
     <t>Full_Name</t>
   </si>
   <si>
-    <t>DmItw6Ps!2</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t xml:space="preserve">SKU </t>
   </si>
   <si>
-    <t>EcomtjmC</t>
-  </si>
-  <si>
     <t>Product_identifier_Description</t>
   </si>
   <si>
@@ -187,15 +181,9 @@
     <t>deodorisers</t>
   </si>
   <si>
-    <t>EcomcFbw</t>
-  </si>
-  <si>
     <t>Product_Identifier_Value</t>
   </si>
   <si>
-    <t>Demarco Purdy II</t>
-  </si>
-  <si>
     <t>Product_Name_Edited</t>
   </si>
   <si>
@@ -328,12 +316,6 @@
     <t>Dust Proof</t>
   </si>
   <si>
-    <t>Ecom8Hbt</t>
-  </si>
-  <si>
-    <t>Ecomeh4I</t>
-  </si>
-  <si>
     <t>Brand D</t>
   </si>
   <si>
@@ -346,24 +328,6 @@
     <t>Company_Name</t>
   </si>
   <si>
-    <t>digitalmeshdpqyd7@maildrop.cc</t>
-  </si>
-  <si>
-    <t>5606355552</t>
-  </si>
-  <si>
-    <t>HKxsM</t>
-  </si>
-  <si>
-    <t>DmNNKLPs!2</t>
-  </si>
-  <si>
-    <t>EcomlpYU</t>
-  </si>
-  <si>
-    <t>ProdIdioEq</t>
-  </si>
-  <si>
     <t>Order_Id</t>
   </si>
   <si>
@@ -427,64 +391,130 @@
     <t>9633698523</t>
   </si>
   <si>
+    <t>15490</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>Select_Month</t>
+  </si>
+  <si>
+    <t>Last 60 days</t>
+  </si>
+  <si>
+    <t>Select_Marketplace</t>
+  </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t>Order_Status</t>
+  </si>
+  <si>
+    <t>Shipped</t>
+  </si>
+  <si>
+    <t>Search_By</t>
+  </si>
+  <si>
+    <t>Search by SKU</t>
+  </si>
+  <si>
+    <t>MarketPlace_Order_ID</t>
+  </si>
+  <si>
+    <t>187-4372-28256</t>
+  </si>
+  <si>
+    <t>Customer_Name</t>
+  </si>
+  <si>
+    <t>Dessie Jones Rolfson</t>
+  </si>
+  <si>
+    <t>MFN</t>
+  </si>
+  <si>
+    <t>Ship_Type</t>
+  </si>
+  <si>
+    <t>Feed_ID</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Ecom4xDA</t>
+  </si>
+  <si>
+    <t>Ecom7UXI</t>
+  </si>
+  <si>
+    <t>EcomEW6t</t>
+  </si>
+  <si>
+    <t>ProdIdQgej</t>
+  </si>
+  <si>
+    <t>digitalmeshhw7asz@maildrop.cc</t>
+  </si>
+  <si>
+    <t>5926897006</t>
+  </si>
+  <si>
+    <t>cLjRE</t>
+  </si>
+  <si>
+    <t>Dma6uWPs!2</t>
+  </si>
+  <si>
+    <t>Solon Schuster</t>
+  </si>
+  <si>
+    <t>digitalmeshENFt18@maildrop.cc</t>
+  </si>
+  <si>
+    <t>Dmnt5hPs!2</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Faf</t>
+  </si>
+  <si>
+    <t>FilterByDate</t>
+  </si>
+  <si>
+    <t>Last 12 Months</t>
+  </si>
+  <si>
+    <t>MarketPlaces</t>
+  </si>
+  <si>
     <t>ofelia.lemke@example.org</t>
   </si>
   <si>
     <t>Pass@123</t>
   </si>
   <si>
-    <t>15490</t>
-  </si>
-  <si>
-    <t>1058</t>
-  </si>
-  <si>
-    <t>Select_Month</t>
-  </si>
-  <si>
-    <t>Last 60 days</t>
-  </si>
-  <si>
-    <t>Select_Marketplace</t>
-  </si>
-  <si>
-    <t>eBay</t>
-  </si>
-  <si>
-    <t>Order_Status</t>
-  </si>
-  <si>
-    <t>Shipped</t>
-  </si>
-  <si>
-    <t>Search_By</t>
-  </si>
-  <si>
-    <t>Search by SKU</t>
-  </si>
-  <si>
-    <t>MarketPlace_Order_ID</t>
-  </si>
-  <si>
-    <t>187-4372-28256</t>
-  </si>
-  <si>
-    <t>Customer_Name</t>
-  </si>
-  <si>
-    <t>Dessie Jones Rolfson</t>
-  </si>
-  <si>
-    <t>MFN</t>
-  </si>
-  <si>
-    <t>Ship_Type</t>
-  </si>
-  <si>
-    <t>shahitha.shahi@gmail.com</t>
-  </si>
-  <si>
-    <t>Sh@h!tha1</t>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Biographical</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>White Console Sink Double Deluxe w/ Black Nickel Bistro Legs &amp; Faucet</t>
   </si>
 </sst>
 </file>
@@ -845,16 +875,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -870,24 +900,24 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -907,7 +937,7 @@
   <cols>
     <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -915,48 +945,48 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -974,35 +1004,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -1015,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AN3" sqref="AN3"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1026,281 +1056,267 @@
     <col min="1" max="1" width="27.42578125" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="23.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="31.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="31.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="25.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="29" style="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="26.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="28.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="21.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="60.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="29.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="23.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="14.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="20.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="21" style="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="32" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="31.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="31.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="25.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="29" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="26.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="28.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="60.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="18.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="29.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="23.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="14.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="21" style="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="O2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="W2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="Z2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AD2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AE2" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="AF2" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38">
+        <v>120</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="X2" r:id="rId1"/>
+    <hyperlink ref="W2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1311,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1347,162 +1363,162 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="T1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1515,83 +1531,194 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="F1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="H1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="86.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/TestData.xlsx
+++ b/src/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15615" windowHeight="2880" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15615" windowHeight="2895" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,16 @@
     <sheet name="FileUpload" sheetId="9" r:id="rId7"/>
     <sheet name="EditProfile" sheetId="10" r:id="rId8"/>
     <sheet name="Reports" sheetId="11" r:id="rId9"/>
+    <sheet name="ChangePassword" sheetId="12" r:id="rId10"/>
+    <sheet name="CustomDate" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:N8"/>
+  <oleSize ref="C1:K7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="183">
   <si>
     <t>Email</t>
   </si>
@@ -391,18 +393,9 @@
     <t>9633698523</t>
   </si>
   <si>
-    <t>15490</t>
-  </si>
-  <si>
-    <t>1058</t>
-  </si>
-  <si>
     <t>Select_Month</t>
   </si>
   <si>
-    <t>Last 60 days</t>
-  </si>
-  <si>
     <t>Select_Marketplace</t>
   </si>
   <si>
@@ -454,30 +447,6 @@
     <t>EcomEW6t</t>
   </si>
   <si>
-    <t>ProdIdQgej</t>
-  </si>
-  <si>
-    <t>digitalmeshhw7asz@maildrop.cc</t>
-  </si>
-  <si>
-    <t>5926897006</t>
-  </si>
-  <si>
-    <t>cLjRE</t>
-  </si>
-  <si>
-    <t>Dma6uWPs!2</t>
-  </si>
-  <si>
-    <t>Solon Schuster</t>
-  </si>
-  <si>
-    <t>digitalmeshENFt18@maildrop.cc</t>
-  </si>
-  <si>
-    <t>Dmnt5hPs!2</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -499,28 +468,121 @@
     <t>MarketPlaces</t>
   </si>
   <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Biographical</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>White Console Sink Double Deluxe w/ Black Nickel Bistro Legs &amp; Faucet</t>
+  </si>
+  <si>
+    <t>EcomMAeZ</t>
+  </si>
+  <si>
+    <t>ProdIdlR3t</t>
+  </si>
+  <si>
+    <t>Daisy Fahey MD</t>
+  </si>
+  <si>
+    <t>digitalmeshkIuqf8@maildrop.cc</t>
+  </si>
+  <si>
+    <t>DmK0ViPs!2</t>
+  </si>
+  <si>
+    <t>OldPassword</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>Pass@123</t>
+  </si>
+  <si>
+    <t>Pass@880</t>
+  </si>
+  <si>
+    <t>Custom Range</t>
+  </si>
+  <si>
+    <t>FilterByDateCustom</t>
+  </si>
+  <si>
+    <t>Sh@h!tha1</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>digitalmeshdkgna3@maildrop.cc</t>
+  </si>
+  <si>
+    <t>1066741090</t>
+  </si>
+  <si>
+    <t>dhCZt</t>
+  </si>
+  <si>
+    <t>DmYsMqPs!2</t>
+  </si>
+  <si>
+    <t>2023-03-05</t>
+  </si>
+  <si>
+    <t>2023-05-05</t>
+  </si>
+  <si>
+    <t>EmailNegCase1</t>
+  </si>
+  <si>
+    <t>abc@123.com</t>
+  </si>
+  <si>
+    <t>EmailNegCase2</t>
+  </si>
+  <si>
+    <t>EmailNegCase3</t>
+  </si>
+  <si>
+    <t>timdavid.com</t>
+  </si>
+  <si>
+    <t>PassNegCase1</t>
+  </si>
+  <si>
+    <t>Pass@125</t>
+  </si>
+  <si>
+    <t>PassNegCase2</t>
+  </si>
+  <si>
+    <t>PassNegCase3</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>46847</t>
+  </si>
+  <si>
     <t>ofelia.lemke@example.org</t>
-  </si>
-  <si>
-    <t>Pass@123</t>
-  </si>
-  <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>Biographical</t>
-  </si>
-  <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>White Console Sink Double Deluxe w/ Black Nickel Bistro Legs &amp; Faucet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -567,7 +629,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -578,6 +640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -873,26 +936,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -905,23 +969,128 @@
       <c r="D1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" t="s">
         <v>158</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>158</v>
       </c>
-      <c r="D2" t="s">
-        <v>159</v>
+      <c r="J2" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -937,7 +1106,7 @@
   <cols>
     <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -974,19 +1143,19 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1004,8 +1173,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1" collapsed="1"/>
   </cols>
@@ -1026,13 +1195,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -1045,7 +1214,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="W6" sqref="W6"/>
@@ -1089,7 +1258,7 @@
     <col min="34" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1198,8 +1367,11 @@
       <c r="AJ1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1276,7 +1448,7 @@
         <v>51</v>
       </c>
       <c r="Z2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>78</v>
@@ -1300,16 +1472,19 @@
         <v>121</v>
       </c>
       <c r="AH2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AI2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AJ2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
+        <v>139</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1531,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1556,54 +1731,54 @@
         <v>102</v>
       </c>
       <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5">
+        <v>1022</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
         <v>124</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
         <v>126</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" t="s">
         <v>128</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" t="s">
         <v>130</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H2" t="s">
         <v>132</v>
       </c>
-      <c r="H1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>133</v>
-      </c>
-      <c r="H2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1624,12 +1799,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1640,7 +1815,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1648,25 +1823,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1676,46 +1851,53 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="86.140625" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="86.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
         <v>160</v>
-      </c>
-      <c r="D1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/src/TestData.xlsx
+++ b/src/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15615" windowHeight="2895" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15615" windowHeight="3225" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="201">
   <si>
     <t>Email</t>
   </si>
@@ -574,6 +574,60 @@
   </si>
   <si>
     <t>ofelia.lemke@example.org</t>
+  </si>
+  <si>
+    <t>Date_of_order</t>
+  </si>
+  <si>
+    <t>April 5th 2023 07:04:00</t>
+  </si>
+  <si>
+    <t>VerifyMarketPlace</t>
+  </si>
+  <si>
+    <t>Verify_Status</t>
+  </si>
+  <si>
+    <t>CANCELED</t>
+  </si>
+  <si>
+    <t>Expected_Ship_Date</t>
+  </si>
+  <si>
+    <t>April 27th 2023</t>
+  </si>
+  <si>
+    <t>Ship_Type_Verify</t>
+  </si>
+  <si>
+    <t>FBA</t>
+  </si>
+  <si>
+    <t>819-6095-77842</t>
+  </si>
+  <si>
+    <t>Market_Place_Order</t>
+  </si>
+  <si>
+    <t>Myron Stiedemann Koch</t>
+  </si>
+  <si>
+    <t>Customer_Number</t>
+  </si>
+  <si>
+    <t>+16577989878</t>
+  </si>
+  <si>
+    <t>Customer_Email</t>
+  </si>
+  <si>
+    <t>metz.mariano@kub.net</t>
+  </si>
+  <si>
+    <t>Customer_address</t>
+  </si>
+  <si>
+    <t>41103 Reynolds Fall Suite 718, 45508 Korbin Divide Apt. 036West Marisaborough, Massachusetts,55600, Algeria</t>
   </si>
 </sst>
 </file>
@@ -1704,10 +1758,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1721,9 +1775,19 @@
     <col min="7" max="7" width="23" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="22.85546875" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
+    <col min="18" max="18" width="25.85546875" customWidth="1"/>
+    <col min="19" max="19" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1">
+    <row r="1" spans="1:19" ht="25.5" customHeight="1">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -1751,8 +1815,38 @@
       <c r="I1" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R1" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="5">
         <v>1022</v>
       </c>
@@ -1779,6 +1873,36 @@
       </c>
       <c r="I2" t="s">
         <v>133</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" t="s">
+        <v>187</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="P2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="R2" t="s">
+        <v>198</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/src/TestData.xlsx
+++ b/src/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15615" windowHeight="3225" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16560" windowHeight="3225"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,17 @@
     <sheet name="Reports" sheetId="11" r:id="rId9"/>
     <sheet name="ChangePassword" sheetId="12" r:id="rId10"/>
     <sheet name="CustomDate" sheetId="13" r:id="rId11"/>
+    <sheet name="AccountDetails" sheetId="14" r:id="rId12"/>
+    <sheet name="ForgetPassword" sheetId="15" r:id="rId13"/>
+    <sheet name="Sheet2" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="C1:K7"/>
+  <oleSize ref="E1:M9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="309">
   <si>
     <t>Email</t>
   </si>
@@ -504,137 +507,462 @@
     <t>Pass@123</t>
   </si>
   <si>
-    <t>Pass@880</t>
-  </si>
-  <si>
     <t>Custom Range</t>
   </si>
   <si>
     <t>FilterByDateCustom</t>
   </si>
   <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>digitalmeshdkgna3@maildrop.cc</t>
+  </si>
+  <si>
+    <t>1066741090</t>
+  </si>
+  <si>
+    <t>dhCZt</t>
+  </si>
+  <si>
+    <t>DmYsMqPs!2</t>
+  </si>
+  <si>
+    <t>2023-03-05</t>
+  </si>
+  <si>
+    <t>2023-05-05</t>
+  </si>
+  <si>
+    <t>EmailNegCase1</t>
+  </si>
+  <si>
+    <t>abc@123.com</t>
+  </si>
+  <si>
+    <t>EmailNegCase2</t>
+  </si>
+  <si>
+    <t>EmailNegCase3</t>
+  </si>
+  <si>
+    <t>timdavid.com</t>
+  </si>
+  <si>
+    <t>PassNegCase1</t>
+  </si>
+  <si>
+    <t>Pass@125</t>
+  </si>
+  <si>
+    <t>PassNegCase2</t>
+  </si>
+  <si>
+    <t>PassNegCase3</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>46847</t>
+  </si>
+  <si>
+    <t>Date_of_order</t>
+  </si>
+  <si>
+    <t>April 5th 2023 07:04:00</t>
+  </si>
+  <si>
+    <t>VerifyMarketPlace</t>
+  </si>
+  <si>
+    <t>Verify_Status</t>
+  </si>
+  <si>
+    <t>CANCELED</t>
+  </si>
+  <si>
+    <t>Expected_Ship_Date</t>
+  </si>
+  <si>
+    <t>April 27th 2023</t>
+  </si>
+  <si>
+    <t>Ship_Type_Verify</t>
+  </si>
+  <si>
+    <t>FBA</t>
+  </si>
+  <si>
+    <t>819-6095-77842</t>
+  </si>
+  <si>
+    <t>Market_Place_Order</t>
+  </si>
+  <si>
+    <t>Myron Stiedemann Koch</t>
+  </si>
+  <si>
+    <t>Customer_Number</t>
+  </si>
+  <si>
+    <t>+16577989878</t>
+  </si>
+  <si>
+    <t>Customer_Email</t>
+  </si>
+  <si>
+    <t>metz.mariano@kub.net</t>
+  </si>
+  <si>
+    <t>Customer_address</t>
+  </si>
+  <si>
+    <t>41103 Reynolds Fall Suite 718, 45508 Korbin Divide Apt. 036West Marisaborough, Massachusetts,55600, Algeria</t>
+  </si>
+  <si>
+    <t>Mudra Dance Costumes Classical Bharatnatyam Readymade 38 Inch Orange and Violet Silk Cloth Women and Kids Dress for Fancy Dress, Costume Competitions, School Dance Events, Annual Functions</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Total_Product_Price</t>
+  </si>
+  <si>
+    <t>Product_Ship_Charge</t>
+  </si>
+  <si>
+    <t>Sales_Tax</t>
+  </si>
+  <si>
+    <t>Grand_Total</t>
+  </si>
+  <si>
+    <t>davidmiller@maildrop.cc</t>
+  </si>
+  <si>
+    <t>DeactivateText</t>
+  </si>
+  <si>
+    <t>Account Deactivated!</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://ecompartner.digitalmesh.co.in/partner/dashboard</t>
+  </si>
+  <si>
+    <t>DMiller@123</t>
+  </si>
+  <si>
+    <t>ChangedPassword</t>
+  </si>
+  <si>
+    <t>Miller@771</t>
+  </si>
+  <si>
+    <t>Password_New</t>
+  </si>
+  <si>
+    <t>Password_old</t>
+  </si>
+  <si>
+    <t>Dav!@1234</t>
+  </si>
+  <si>
+    <t>ProductSearchDate</t>
+  </si>
+  <si>
+    <t>2023-04-12</t>
+  </si>
+  <si>
+    <t>shahitha.shahi@gmail.com</t>
+  </si>
+  <si>
     <t>Sh@h!tha1</t>
   </si>
   <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>digitalmeshdkgna3@maildrop.cc</t>
-  </si>
-  <si>
-    <t>1066741090</t>
-  </si>
-  <si>
-    <t>dhCZt</t>
-  </si>
-  <si>
-    <t>DmYsMqPs!2</t>
-  </si>
-  <si>
-    <t>2023-03-05</t>
-  </si>
-  <si>
-    <t>2023-05-05</t>
-  </si>
-  <si>
-    <t>EmailNegCase1</t>
-  </si>
-  <si>
-    <t>abc@123.com</t>
-  </si>
-  <si>
-    <t>EmailNegCase2</t>
-  </si>
-  <si>
-    <t>EmailNegCase3</t>
-  </si>
-  <si>
-    <t>timdavid.com</t>
-  </si>
-  <si>
-    <t>PassNegCase1</t>
-  </si>
-  <si>
-    <t>Pass@125</t>
-  </si>
-  <si>
-    <t>PassNegCase2</t>
-  </si>
-  <si>
-    <t>PassNegCase3</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>46847</t>
+    <t>Login_Valid_Email_2</t>
+  </si>
+  <si>
+    <t>davi@maildrop.cc</t>
+  </si>
+  <si>
+    <t>Davi!@123</t>
+  </si>
+  <si>
+    <t>Login_Valid_Password_2</t>
+  </si>
+  <si>
+    <t>Login_Valid_Email_3</t>
+  </si>
+  <si>
+    <t>Login_Valid_Password_3</t>
   </si>
   <si>
     <t>ofelia.lemke@example.org</t>
   </si>
   <si>
-    <t>Date_of_order</t>
-  </si>
-  <si>
-    <t>April 5th 2023 07:04:00</t>
-  </si>
-  <si>
-    <t>VerifyMarketPlace</t>
-  </si>
-  <si>
-    <t>Verify_Status</t>
-  </si>
-  <si>
-    <t>CANCELED</t>
-  </si>
-  <si>
-    <t>Expected_Ship_Date</t>
-  </si>
-  <si>
-    <t>April 27th 2023</t>
-  </si>
-  <si>
-    <t>Ship_Type_Verify</t>
-  </si>
-  <si>
-    <t>FBA</t>
-  </si>
-  <si>
-    <t>819-6095-77842</t>
-  </si>
-  <si>
-    <t>Market_Place_Order</t>
-  </si>
-  <si>
-    <t>Myron Stiedemann Koch</t>
-  </si>
-  <si>
-    <t>Customer_Number</t>
-  </si>
-  <si>
-    <t>+16577989878</t>
-  </si>
-  <si>
-    <t>Customer_Email</t>
-  </si>
-  <si>
-    <t>metz.mariano@kub.net</t>
-  </si>
-  <si>
-    <t>Customer_address</t>
-  </si>
-  <si>
-    <t>41103 Reynolds Fall Suite 718, 45508 Korbin Divide Apt. 036West Marisaborough, Massachusetts,55600, Algeria</t>
+    <t>digitalmeshvlnkbp@maildrop.cc</t>
+  </si>
+  <si>
+    <t>digitalmeshabmtpj@maildrop.cc</t>
+  </si>
+  <si>
+    <t>0466893518</t>
+  </si>
+  <si>
+    <t>Zgfkp</t>
+  </si>
+  <si>
+    <t>9692997086</t>
+  </si>
+  <si>
+    <t>zvdDN</t>
+  </si>
+  <si>
+    <t>1966086533</t>
+  </si>
+  <si>
+    <t>wpgmC</t>
+  </si>
+  <si>
+    <t>digitalmeshjegdfu@maildrop.cc</t>
+  </si>
+  <si>
+    <t>0350394949</t>
+  </si>
+  <si>
+    <t>ghhqr</t>
+  </si>
+  <si>
+    <t>digitalmeshzmtgpn@maildrop.cc</t>
+  </si>
+  <si>
+    <t>6763159187</t>
+  </si>
+  <si>
+    <t>QYDel</t>
+  </si>
+  <si>
+    <t>digitalmeshqpwhqh@maildrop.cc</t>
+  </si>
+  <si>
+    <t>6259802196</t>
+  </si>
+  <si>
+    <t>UKJtw</t>
+  </si>
+  <si>
+    <t>digitalmeshqfe0a3@maildrop.cc</t>
+  </si>
+  <si>
+    <t>6745730079</t>
+  </si>
+  <si>
+    <t>HxcLQ</t>
+  </si>
+  <si>
+    <t>digitalmeshafgs0d@maildrop.cc</t>
+  </si>
+  <si>
+    <t>9272020144</t>
+  </si>
+  <si>
+    <t>PJEzS</t>
+  </si>
+  <si>
+    <t>digitalmeshfqnomb@maildrop.cc</t>
+  </si>
+  <si>
+    <t>7554562067</t>
+  </si>
+  <si>
+    <t>eFjCw</t>
+  </si>
+  <si>
+    <t>digitalmeshxktkhe@maildrop.cc</t>
+  </si>
+  <si>
+    <t>6971140660</t>
+  </si>
+  <si>
+    <t>BhfGH</t>
+  </si>
+  <si>
+    <t>digitalmeshnhlq7g@maildrop.cc</t>
+  </si>
+  <si>
+    <t>9314747773</t>
+  </si>
+  <si>
+    <t>hnIXw</t>
+  </si>
+  <si>
+    <t>digitalmeshkxbywk@maildrop.cc</t>
+  </si>
+  <si>
+    <t>9629956265</t>
+  </si>
+  <si>
+    <t>vhLJq</t>
+  </si>
+  <si>
+    <t>digitalmesh40xndi@maildrop.cc</t>
+  </si>
+  <si>
+    <t>2092546202</t>
+  </si>
+  <si>
+    <t>VfqLn</t>
+  </si>
+  <si>
+    <t>digitalmeshukl7jo@maildrop.cc</t>
+  </si>
+  <si>
+    <t>0062486451</t>
+  </si>
+  <si>
+    <t>zVPjL</t>
+  </si>
+  <si>
+    <t>digitalmesh9sawuq@maildrop.cc</t>
+  </si>
+  <si>
+    <t>9855841099</t>
+  </si>
+  <si>
+    <t>ukILe</t>
+  </si>
+  <si>
+    <t>digitalmeshqrutj3@maildrop.cc</t>
+  </si>
+  <si>
+    <t>5144900474</t>
+  </si>
+  <si>
+    <t>VdlbL</t>
+  </si>
+  <si>
+    <t>digitalmesh913jwh@maildrop.cc</t>
+  </si>
+  <si>
+    <t>1428765991</t>
+  </si>
+  <si>
+    <t>rPHqL</t>
+  </si>
+  <si>
+    <t>digitalmeshbrvwu7@maildrop.cc</t>
+  </si>
+  <si>
+    <t>2431826116</t>
+  </si>
+  <si>
+    <t>ZkiLj</t>
+  </si>
+  <si>
+    <t>digitalmeshiydg7r@maildrop.cc</t>
+  </si>
+  <si>
+    <t>4053785695</t>
+  </si>
+  <si>
+    <t>SFDNt</t>
+  </si>
+  <si>
+    <t>digitalmeshvuqz49@maildrop.cc</t>
+  </si>
+  <si>
+    <t>7619470719</t>
+  </si>
+  <si>
+    <t>WILNb</t>
+  </si>
+  <si>
+    <t>digitalmesht1gyyx@maildrop.cc</t>
+  </si>
+  <si>
+    <t>6575129228</t>
+  </si>
+  <si>
+    <t>RLlYA</t>
+  </si>
+  <si>
+    <t>digitalmeshu3zgf1@maildrop.cc</t>
+  </si>
+  <si>
+    <t>2659267185</t>
+  </si>
+  <si>
+    <t>LSqqf</t>
+  </si>
+  <si>
+    <t>digitalmeshjb1nhc@maildrop.cc</t>
+  </si>
+  <si>
+    <t>5401643414</t>
+  </si>
+  <si>
+    <t>tKaYG</t>
+  </si>
+  <si>
+    <t>digitalmeshfk4j9q@maildrop.cc</t>
+  </si>
+  <si>
+    <t>9811264712</t>
+  </si>
+  <si>
+    <t>gsJSQ</t>
+  </si>
+  <si>
+    <t>digitalmeshjhxp69@maildrop.cc</t>
+  </si>
+  <si>
+    <t>0095129719</t>
+  </si>
+  <si>
+    <t>UkFBt</t>
+  </si>
+  <si>
+    <t>digitalmeshr9kkzz@maildrop.cc</t>
+  </si>
+  <si>
+    <t>1516781975</t>
+  </si>
+  <si>
+    <t>dHras</t>
+  </si>
+  <si>
+    <t>digitalmesh7vntm9@maildrop.cc</t>
+  </si>
+  <si>
+    <t>2066235914</t>
+  </si>
+  <si>
+    <t>qHUDF</t>
+  </si>
+  <si>
+    <t>digitalmesh8fhhi7@maildrop.cc</t>
+  </si>
+  <si>
+    <t>5240559014</t>
+  </si>
+  <si>
+    <t>PBtNx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="3">
@@ -683,7 +1011,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -695,6 +1023,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -990,27 +1322,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="30.71875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="23.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1024,45 +1361,60 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" t="s">
         <v>171</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N1" t="s">
+        <v>223</v>
+      </c>
+      <c r="O1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" t="s">
         <v>173</v>
-      </c>
-      <c r="G1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G2" t="s">
-        <v>175</v>
       </c>
       <c r="H2" t="s">
         <v>158</v>
@@ -1071,7 +1423,22 @@
         <v>158</v>
       </c>
       <c r="J2" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+      <c r="K2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M2" t="s">
+        <v>221</v>
+      </c>
+      <c r="N2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O2" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1084,13 +1451,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1102,11 +1469,8 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>158</v>
-      </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1116,35 +1480,124 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="72.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1152,18 +1605,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="30.71875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.91015625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1197,19 +1650,19 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>307</v>
       </c>
       <c r="G2" t="s">
-        <v>167</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -1227,10 +1680,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1276,40 +1729,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="31.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="31.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="21" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="25.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="29" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="26.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="28.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="60.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="18.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="29.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="23.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="14.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="20.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="11.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="21" style="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="27.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="23.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="32.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="18.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="31.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="31.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="21.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="25.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="29.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="28.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="21.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="13.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="60.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="18.28515625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="29.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="1" width="21.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="34" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -1562,32 +2015,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="29.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="20.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="18.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="26" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="26.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="23.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="21.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="18.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="18.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="29.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="27.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="29.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="20" max="21" customWidth="true" style="1" width="18.42578125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="26.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="16.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="25.7109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="23.85546875" collapsed="true"/>
+    <col min="27" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -1758,36 +2211,43 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="27.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" customWidth="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="16" width="22.85546875" customWidth="1"/>
-    <col min="17" max="17" width="19" customWidth="1"/>
-    <col min="18" max="18" width="25.85546875" customWidth="1"/>
-    <col min="19" max="19" width="61" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="54.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="25.5" customHeight="1">
+    <row r="1" spans="1:26" ht="25.5" customHeight="1">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -1816,42 +2276,63 @@
         <v>134</v>
       </c>
       <c r="J1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L1" t="s">
         <v>183</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>185</v>
       </c>
-      <c r="L1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M1" t="s">
-        <v>188</v>
-      </c>
       <c r="N1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O1" t="s">
         <v>190</v>
-      </c>
-      <c r="O1" t="s">
-        <v>193</v>
       </c>
       <c r="P1" t="s">
         <v>131</v>
       </c>
       <c r="Q1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="R1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+        <v>196</v>
+      </c>
+      <c r="T1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="60">
       <c r="A2" s="5">
         <v>1022</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>145</v>
@@ -1875,34 +2356,52 @@
         <v>133</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>124</v>
       </c>
       <c r="L2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="N2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>191</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="P2" t="s">
-        <v>194</v>
-      </c>
       <c r="Q2" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R2" t="s">
+        <v>195</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>200</v>
+      <c r="U2" s="10">
+        <v>4380</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="W2" s="10">
+        <v>4380</v>
+      </c>
+      <c r="X2" s="10">
+        <v>219</v>
+      </c>
+      <c r="Z2" s="10">
+        <v>4599</v>
       </c>
     </row>
   </sheetData>
@@ -1939,7 +2438,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1947,9 +2446,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1983,11 +2482,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="86.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="86.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2004,7 +2503,7 @@
         <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2021,7 +2520,7 @@
         <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
